--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="426">
   <si>
     <t xml:space="preserve">Part</t>
   </si>
@@ -239,15 +239,120 @@
     <t xml:space="preserve">CAPACITOR, American symbol</t>
   </si>
   <si>
+    <t xml:space="preserve">C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-USC0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.47uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2</t>
   </si>
   <si>
     <t xml:space="preserve">1uF</t>
   </si>
   <si>
+    <t xml:space="preserve">C20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22uF 50V Electrolytic Capacitor Wurth 860020672011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C29</t>
+  </si>
+  <si>
     <t xml:space="preserve">C3</t>
   </si>
   <si>
+    <t xml:space="preserve">C30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C34</t>
+  </si>
+  <si>
     <t xml:space="preserve">C4</t>
   </si>
   <si>
@@ -269,111 +374,6 @@
     <t xml:space="preserve">C9</t>
   </si>
   <si>
-    <t xml:space="preserve">C10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-USC0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.47uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22uF 50V Electrolytic Capacitor Wurth 860020672011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C34</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1</t>
   </si>
   <si>
@@ -497,270 +497,270 @@
     <t xml:space="preserve">3mm Flangeless LED</t>
   </si>
   <si>
+    <t xml:space="preserve">LED10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED19</t>
+  </si>
+  <si>
     <t xml:space="preserve">LED2</t>
   </si>
   <si>
+    <t xml:space="preserve">LED20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED29</t>
+  </si>
+  <si>
     <t xml:space="preserve">LED3</t>
   </si>
   <si>
+    <t xml:space="preserve">LED30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED39</t>
+  </si>
+  <si>
     <t xml:space="preserve">LED4</t>
   </si>
   <si>
+    <t xml:space="preserve">LED40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED49</t>
+  </si>
+  <si>
     <t xml:space="preserve">LED5</t>
   </si>
   <si>
+    <t xml:space="preserve">LED50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED59</t>
+  </si>
+  <si>
     <t xml:space="preserve">LED6</t>
   </si>
   <si>
+    <t xml:space="preserve">LED60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED69</t>
+  </si>
+  <si>
     <t xml:space="preserve">LED7</t>
   </si>
   <si>
+    <t xml:space="preserve">LED70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED79</t>
+  </si>
+  <si>
     <t xml:space="preserve">LED8</t>
   </si>
   <si>
+    <t xml:space="preserve">LED80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED89</t>
+  </si>
+  <si>
     <t xml:space="preserve">LED9</t>
   </si>
   <si>
-    <t xml:space="preserve">LED10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED89</t>
-  </si>
-  <si>
     <t xml:space="preserve">LED90</t>
   </si>
   <si>
@@ -782,6 +782,27 @@
     <t xml:space="preserve">LED96</t>
   </si>
   <si>
+    <t xml:space="preserve">LED97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GREEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEDSML1206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SML1206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RED</t>
+  </si>
+  <si>
     <t xml:space="preserve">R1</t>
   </si>
   <si>
@@ -797,27 +818,69 @@
     <t xml:space="preserve">RESISTOR, American symbol</t>
   </si>
   <si>
+    <t xml:space="preserve">R10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-US_R0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">420K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3</t>
+  </si>
+  <si>
     <t xml:space="preserve">R4</t>
   </si>
   <si>
     <t xml:space="preserve">4.7K</t>
   </si>
   <si>
-    <t xml:space="preserve">R-US_R0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R0805</t>
-  </si>
-  <si>
     <t xml:space="preserve">R5</t>
   </si>
   <si>
     <t xml:space="preserve">R6</t>
   </si>
   <si>
-    <t xml:space="preserve">100K</t>
-  </si>
-  <si>
     <t xml:space="preserve">R7</t>
   </si>
   <si>
@@ -827,42 +890,6 @@
     <t xml:space="preserve">R9</t>
   </si>
   <si>
-    <t xml:space="preserve">R10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">420K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R21</t>
-  </si>
-  <si>
     <t xml:space="preserve">S1</t>
   </si>
   <si>
@@ -929,6 +956,30 @@
     <t xml:space="preserve">SW1</t>
   </si>
   <si>
+    <t xml:space="preserve">TP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPSQTP20R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP20R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test pad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP5</t>
+  </si>
+  <si>
     <t xml:space="preserve">TVS4</t>
   </si>
   <si>
@@ -1172,23 +1223,7 @@
     <t xml:space="preserve">LED1, LED2, LED3, LED4, LED5, LED6, LED7, LED8, LED9, LED10, LED11, LED12, LED13, LED14, LED15, LED16, LED17, LED18, LED19, LED20, LED21, LED22, LED23, LED24, LED25, LED26, LED27, LED28, LED29, LED30, LED31, LED32, LED33, LED34, LED35, LED36, LED37, LED38, LED39, LED40, LED41, LED42, LED43, LED44, LED45, LED46, LED47, LED48, LED49, LED50, LED51, LED52, LED53, LED54, LED55, LED56, LED57, LED58, LED59, LED60, LED61, LED62, LED63, LED64, LED65, LED66, LED67, LED68, LED69, LED70, LED71, LED72, LED73, LED74, LED75, LED76, LED77, LED78, LED79, LED80, LED81, LED82, LED83, LED84, LED85, LED86, LED87, LED88, LED89, LED90, LED91, LED92, LED93, LED94, LED95, LED96</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">N/A-Order via </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Amazon</t>
-    </r>
+    <t xml:space="preserve">N/A-Order via Amazon</t>
   </si>
   <si>
     <t xml:space="preserve">?</t>
@@ -1206,6 +1241,9 @@
     <t xml:space="preserve">RMCF0805FT100KCT-ND</t>
   </si>
   <si>
+    <t xml:space="preserve">R2, R3, R9</t>
+  </si>
+  <si>
     <t xml:space="preserve">RNCP0805FTD200RCT-ND</t>
   </si>
   <si>
@@ -1249,6 +1287,18 @@
   </si>
   <si>
     <t xml:space="preserve">2073-USB4105-GF-ACT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160-1457-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED (Red, 1206 package)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160-1456-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED (Green, 1206 package)</t>
   </si>
 </sst>
 </file>
@@ -1264,6 +1314,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1285,6 +1336,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1329,7 +1381,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1339,6 +1391,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1368,13 +1428,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BO174"/>
+  <dimension ref="A1:BO183"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B172" activeCellId="0" sqref="B172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="21.16"/>
@@ -1396,7 +1456,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="8.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="92.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="92.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="6.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="6.98"/>
@@ -1423,13 +1483,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="30.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="49" style="0" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="49" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="21.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="14.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="13.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="25.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="25.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="10.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="11.85"/>
@@ -1702,13 +1762,13 @@
         <v>75</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>71</v>
@@ -1716,16 +1776,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="D6" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>71</v>
@@ -1733,16 +1793,16 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>70</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>71</v>
@@ -1750,10 +1810,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>69</v>
@@ -1767,16 +1827,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>71</v>
@@ -1784,16 +1844,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="D10" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>71</v>
@@ -1801,16 +1861,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>71</v>
@@ -1818,16 +1878,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>71</v>
@@ -1835,16 +1895,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>71</v>
@@ -1852,16 +1912,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>71</v>
@@ -1869,16 +1929,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>71</v>
@@ -1886,50 +1946,112 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>71</v>
-      </c>
+      <c r="B17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>860020672011</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>860020672011</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="1"/>
+      <c r="BI17" s="1"/>
+      <c r="BJ17" s="1"/>
+      <c r="BK17" s="1"/>
+      <c r="BL17" s="1"/>
+      <c r="BM17" s="1"/>
+      <c r="BN17" s="1"/>
+      <c r="BO17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>71</v>
@@ -1937,16 +2059,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>71</v>
@@ -1954,16 +2076,16 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>71</v>
@@ -1971,16 +2093,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>71</v>
@@ -1988,16 +2110,16 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>71</v>
@@ -2005,84 +2127,208 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="A24" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <v>860020672011</v>
-      </c>
-      <c r="D24" s="1" t="n">
-        <v>860020672011</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="B24" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="0"/>
+      <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
+      <c r="S24" s="0"/>
+      <c r="T24" s="0"/>
+      <c r="U24" s="0"/>
+      <c r="V24" s="0"/>
+      <c r="W24" s="0"/>
+      <c r="X24" s="0"/>
+      <c r="Y24" s="0"/>
+      <c r="Z24" s="0"/>
+      <c r="AA24" s="0"/>
+      <c r="AB24" s="0"/>
+      <c r="AC24" s="0"/>
+      <c r="AD24" s="0"/>
+      <c r="AE24" s="0"/>
+      <c r="AF24" s="0"/>
+      <c r="AG24" s="0"/>
+      <c r="AH24" s="0"/>
+      <c r="AI24" s="0"/>
+      <c r="AJ24" s="0"/>
+      <c r="AK24" s="0"/>
+      <c r="AL24" s="0"/>
+      <c r="AM24" s="0"/>
+      <c r="AN24" s="0"/>
+      <c r="AO24" s="0"/>
+      <c r="AP24" s="0"/>
+      <c r="AQ24" s="0"/>
+      <c r="AR24" s="0"/>
+      <c r="AS24" s="0"/>
+      <c r="AT24" s="0"/>
+      <c r="AU24" s="0"/>
+      <c r="AV24" s="0"/>
+      <c r="AW24" s="0"/>
+      <c r="AX24" s="0"/>
+      <c r="AY24" s="0"/>
+      <c r="AZ24" s="0"/>
+      <c r="BA24" s="0"/>
+      <c r="BB24" s="0"/>
+      <c r="BC24" s="0"/>
+      <c r="BD24" s="0"/>
+      <c r="BE24" s="0"/>
+      <c r="BF24" s="0"/>
+      <c r="BG24" s="0"/>
+      <c r="BH24" s="0"/>
+      <c r="BI24" s="0"/>
+      <c r="BJ24" s="0"/>
+      <c r="BK24" s="0"/>
+      <c r="BL24" s="0"/>
+      <c r="BM24" s="0"/>
+      <c r="BN24" s="0"/>
+      <c r="BO24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="0" t="s">
+      <c r="A26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>860020672011</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>860020672011</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>71</v>
-      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="1"/>
+      <c r="BD26" s="1"/>
+      <c r="BE26" s="1"/>
+      <c r="BF26" s="1"/>
+      <c r="BG26" s="1"/>
+      <c r="BH26" s="1"/>
+      <c r="BI26" s="1"/>
+      <c r="BJ26" s="1"/>
+      <c r="BK26" s="1"/>
+      <c r="BL26" s="1"/>
+      <c r="BM26" s="1"/>
+      <c r="BN26" s="1"/>
+      <c r="BO26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>71</v>
@@ -2090,16 +2336,16 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>96</v>
-      </c>
       <c r="C28" s="0" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>71</v>
@@ -2110,13 +2356,13 @@
         <v>109</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>71</v>
@@ -2127,13 +2373,13 @@
         <v>110</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>71</v>
@@ -2144,47 +2390,109 @@
         <v>111</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="1" t="n">
-        <v>860020672011</v>
-      </c>
-      <c r="D32" s="1" t="n">
-        <v>860020672011</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="C32" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+      <c r="M32" s="0"/>
+      <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
+      <c r="P32" s="0"/>
+      <c r="Q32" s="0"/>
+      <c r="R32" s="0"/>
+      <c r="S32" s="0"/>
+      <c r="T32" s="0"/>
+      <c r="U32" s="0"/>
+      <c r="V32" s="0"/>
+      <c r="W32" s="0"/>
+      <c r="X32" s="0"/>
+      <c r="Y32" s="0"/>
+      <c r="Z32" s="0"/>
+      <c r="AA32" s="0"/>
+      <c r="AB32" s="0"/>
+      <c r="AC32" s="0"/>
+      <c r="AD32" s="0"/>
+      <c r="AE32" s="0"/>
+      <c r="AF32" s="0"/>
+      <c r="AG32" s="0"/>
+      <c r="AH32" s="0"/>
+      <c r="AI32" s="0"/>
+      <c r="AJ32" s="0"/>
+      <c r="AK32" s="0"/>
+      <c r="AL32" s="0"/>
+      <c r="AM32" s="0"/>
+      <c r="AN32" s="0"/>
+      <c r="AO32" s="0"/>
+      <c r="AP32" s="0"/>
+      <c r="AQ32" s="0"/>
+      <c r="AR32" s="0"/>
+      <c r="AS32" s="0"/>
+      <c r="AT32" s="0"/>
+      <c r="AU32" s="0"/>
+      <c r="AV32" s="0"/>
+      <c r="AW32" s="0"/>
+      <c r="AX32" s="0"/>
+      <c r="AY32" s="0"/>
+      <c r="AZ32" s="0"/>
+      <c r="BA32" s="0"/>
+      <c r="BB32" s="0"/>
+      <c r="BC32" s="0"/>
+      <c r="BD32" s="0"/>
+      <c r="BE32" s="0"/>
+      <c r="BF32" s="0"/>
+      <c r="BG32" s="0"/>
+      <c r="BH32" s="0"/>
+      <c r="BI32" s="0"/>
+      <c r="BJ32" s="0"/>
+      <c r="BK32" s="0"/>
+      <c r="BL32" s="0"/>
+      <c r="BM32" s="0"/>
+      <c r="BN32" s="0"/>
+      <c r="BO32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>71</v>
@@ -2192,16 +2500,16 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>71</v>
@@ -2212,13 +2520,13 @@
         <v>116</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>71</v>
@@ -2720,7 +3028,7 @@
       <c r="D57" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" s="1" t="s">
         <v>157</v>
       </c>
       <c r="BH57" s="0" t="n">
@@ -2737,7 +3045,7 @@
       <c r="D58" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="0" t="s">
         <v>157</v>
       </c>
       <c r="BH58" s="0" t="n">
@@ -2754,7 +3062,7 @@
       <c r="D59" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="E59" s="1" t="s">
         <v>157</v>
       </c>
       <c r="BH59" s="0" t="n">
@@ -2771,7 +3079,7 @@
       <c r="D60" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="0" t="s">
         <v>157</v>
       </c>
       <c r="BH60" s="0" t="n">
@@ -2788,7 +3096,7 @@
       <c r="D61" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E61" s="1" t="s">
         <v>157</v>
       </c>
       <c r="BH61" s="0" t="n">
@@ -2805,7 +3113,7 @@
       <c r="D62" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="0" t="s">
         <v>157</v>
       </c>
       <c r="BH62" s="0" t="n">
@@ -2822,7 +3130,7 @@
       <c r="D63" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="E63" s="1" t="s">
         <v>157</v>
       </c>
       <c r="BH63" s="0" t="n">
@@ -2839,7 +3147,7 @@
       <c r="D64" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="0" t="s">
         <v>157</v>
       </c>
       <c r="BH64" s="0" t="n">
@@ -2856,7 +3164,7 @@
       <c r="D65" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E65" s="0" t="s">
+      <c r="E65" s="1" t="s">
         <v>157</v>
       </c>
       <c r="BH65" s="0" t="n">
@@ -2873,7 +3181,7 @@
       <c r="D66" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="0" t="s">
         <v>157</v>
       </c>
       <c r="BH66" s="0" t="n">
@@ -3094,7 +3402,7 @@
       <c r="D79" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E79" s="0" t="s">
+      <c r="E79" s="1" t="s">
         <v>157</v>
       </c>
       <c r="BH79" s="0" t="n">
@@ -3111,7 +3419,7 @@
       <c r="D80" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" s="0" t="s">
         <v>157</v>
       </c>
       <c r="BH80" s="0" t="n">
@@ -3128,7 +3436,7 @@
       <c r="D81" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E81" s="0" t="s">
+      <c r="E81" s="1" t="s">
         <v>157</v>
       </c>
       <c r="BH81" s="0" t="n">
@@ -3145,7 +3453,7 @@
       <c r="D82" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="0" t="s">
         <v>157</v>
       </c>
       <c r="BH82" s="0" t="n">
@@ -3162,7 +3470,7 @@
       <c r="D83" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E83" s="0" t="s">
+      <c r="E83" s="1" t="s">
         <v>157</v>
       </c>
       <c r="BH83" s="0" t="n">
@@ -3179,7 +3487,7 @@
       <c r="D84" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" s="0" t="s">
         <v>157</v>
       </c>
       <c r="BH84" s="0" t="n">
@@ -3196,7 +3504,7 @@
       <c r="D85" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E85" s="0" t="s">
+      <c r="E85" s="1" t="s">
         <v>157</v>
       </c>
       <c r="BH85" s="0" t="n">
@@ -3213,7 +3521,7 @@
       <c r="D86" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" s="0" t="s">
         <v>157</v>
       </c>
       <c r="BH86" s="0" t="n">
@@ -3230,7 +3538,7 @@
       <c r="D87" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E87" s="0" t="s">
+      <c r="E87" s="1" t="s">
         <v>157</v>
       </c>
       <c r="BH87" s="0" t="n">
@@ -3247,7 +3555,7 @@
       <c r="D88" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="0" t="s">
         <v>157</v>
       </c>
       <c r="BH88" s="0" t="n">
@@ -3468,7 +3776,7 @@
       <c r="D101" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E101" s="0" t="s">
+      <c r="E101" s="1" t="s">
         <v>157</v>
       </c>
       <c r="BH101" s="0" t="n">
@@ -3485,7 +3793,7 @@
       <c r="D102" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" s="0" t="s">
         <v>157</v>
       </c>
       <c r="BH102" s="0" t="n">
@@ -3502,7 +3810,7 @@
       <c r="D103" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E103" s="0" t="s">
+      <c r="E103" s="1" t="s">
         <v>157</v>
       </c>
       <c r="BH103" s="0" t="n">
@@ -3519,7 +3827,7 @@
       <c r="D104" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" s="0" t="s">
         <v>157</v>
       </c>
       <c r="BH104" s="0" t="n">
@@ -3536,7 +3844,7 @@
       <c r="D105" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E105" s="0" t="s">
+      <c r="E105" s="1" t="s">
         <v>157</v>
       </c>
       <c r="BH105" s="0" t="n">
@@ -3553,7 +3861,7 @@
       <c r="D106" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" s="0" t="s">
         <v>157</v>
       </c>
       <c r="BH106" s="0" t="n">
@@ -3570,7 +3878,7 @@
       <c r="D107" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E107" s="0" t="s">
+      <c r="E107" s="1" t="s">
         <v>157</v>
       </c>
       <c r="BH107" s="0" t="n">
@@ -3587,7 +3895,7 @@
       <c r="D108" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E108" s="0" t="s">
         <v>157</v>
       </c>
       <c r="BH108" s="0" t="n">
@@ -3604,7 +3912,7 @@
       <c r="D109" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E109" s="0" t="s">
+      <c r="E109" s="1" t="s">
         <v>157</v>
       </c>
       <c r="BH109" s="0" t="n">
@@ -3621,7 +3929,7 @@
       <c r="D110" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E110" s="0" t="s">
         <v>157</v>
       </c>
       <c r="BH110" s="0" t="n">
@@ -3842,7 +4150,7 @@
       <c r="D123" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E123" s="0" t="s">
+      <c r="E123" s="1" t="s">
         <v>157</v>
       </c>
       <c r="BH123" s="0" t="n">
@@ -3859,7 +4167,7 @@
       <c r="D124" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E124" s="0" t="s">
         <v>157</v>
       </c>
       <c r="BH124" s="0" t="n">
@@ -3876,7 +4184,7 @@
       <c r="D125" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E125" s="0" t="s">
+      <c r="E125" s="1" t="s">
         <v>157</v>
       </c>
       <c r="BH125" s="0" t="n">
@@ -3893,7 +4201,7 @@
       <c r="D126" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E126" s="0" t="s">
         <v>157</v>
       </c>
       <c r="BH126" s="0" t="n">
@@ -3910,7 +4218,7 @@
       <c r="D127" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E127" s="0" t="s">
+      <c r="E127" s="1" t="s">
         <v>157</v>
       </c>
       <c r="BH127" s="0" t="n">
@@ -3927,7 +4235,7 @@
       <c r="D128" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="E128" s="0" t="s">
         <v>157</v>
       </c>
       <c r="BH128" s="0" t="n">
@@ -3944,7 +4252,7 @@
       <c r="D129" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E129" s="0" t="s">
+      <c r="E129" s="1" t="s">
         <v>157</v>
       </c>
       <c r="BH129" s="0" t="n">
@@ -3961,7 +4269,7 @@
       <c r="D130" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="E130" s="0" t="s">
         <v>157</v>
       </c>
       <c r="BH130" s="0" t="n">
@@ -3978,7 +4286,7 @@
       <c r="D131" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E131" s="0" t="s">
+      <c r="E131" s="1" t="s">
         <v>157</v>
       </c>
       <c r="BH131" s="0" t="n">
@@ -3995,7 +4303,7 @@
       <c r="D132" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="E132" s="0" t="s">
         <v>157</v>
       </c>
       <c r="BH132" s="0" t="n">
@@ -4154,6 +4462,9 @@
       <c r="E141" s="0" t="s">
         <v>257</v>
       </c>
+      <c r="BH141" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
@@ -4163,549 +4474,480 @@
         <v>259</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E142" s="0" t="s">
         <v>257</v>
       </c>
+      <c r="BH142" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C143" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="B143" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="C143" s="0" t="s">
-        <v>260</v>
-      </c>
       <c r="D143" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="B144" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B144" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E144" s="0" t="s">
         <v>264</v>
-      </c>
-      <c r="C144" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="D144" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="E144" s="0" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B145" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="E145" s="0" t="s">
         <v>264</v>
-      </c>
-      <c r="C145" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="D145" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="E145" s="0" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C146" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="B146" s="0" t="s">
+      <c r="D146" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E146" s="0" t="s">
         <v>264</v>
-      </c>
-      <c r="C146" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="D146" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="E146" s="0" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="D147" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="B147" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="C147" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="D147" s="0" t="s">
-        <v>261</v>
-      </c>
       <c r="E147" s="0" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="B148" s="0" t="n">
-        <v>33</v>
+        <v>272</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>270</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B150" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E150" s="0" t="s">
         <v>264</v>
-      </c>
-      <c r="C150" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="D150" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="E150" s="0" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="B151" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B151" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E151" s="0" t="s">
         <v>264</v>
-      </c>
-      <c r="C151" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="D151" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="E151" s="0" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="B152" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B152" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E152" s="0" t="s">
         <v>264</v>
-      </c>
-      <c r="C152" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="D152" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="E152" s="0" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="G158" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="N158" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="O158" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="P158" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="V158" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="AJ158" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="AX158" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="AY158" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="BC158" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="BI158" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="BJ158" s="0" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="G159" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="N159" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="O159" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="P159" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="V159" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="AJ159" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="AX159" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="AY159" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="BC159" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="BI159" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="BJ159" s="0" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="G160" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="N160" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="O160" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="P160" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="V160" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="AJ160" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="AX160" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="AY160" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="BC160" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="BI160" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="BJ160" s="0" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="B161" s="0" t="s">
-        <v>281</v>
+        <v>288</v>
+      </c>
+      <c r="B161" s="0" t="n">
+        <v>200</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="G161" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="N161" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="O161" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="P161" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="V161" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="AJ161" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="AX161" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="AY161" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="BC161" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="BI161" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="BJ161" s="0" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="D162" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="E162" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="G162" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="N162" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="O162" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="C162" s="0" t="s">
+      <c r="P162" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="D162" s="0" t="s">
+      <c r="V162" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="E162" s="0" t="s">
+      <c r="AJ162" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="BH162" s="0" t="n">
-        <v>7</v>
+      <c r="AX162" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="AY162" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="BC162" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI162" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ162" s="0" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="E163" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="G163" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="N163" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="O163" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="P163" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="V163" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="AJ163" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="AX163" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="C163" s="0" t="s">
+      <c r="AY163" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="BC163" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI163" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ163" s="0" t="s">
         <v>298</v>
-      </c>
-      <c r="D163" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="E163" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="BA163" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="BB163" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="BH163" s="0" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="G164" s="0" t="s">
         <v>121</v>
       </c>
       <c r="N164" s="0" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="O164" s="0" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="P164" s="0" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="V164" s="0" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="AJ164" s="0" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="AX164" s="0" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="AY164" s="0" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="BC164" s="0" t="s">
         <v>125</v>
@@ -4714,35 +4956,74 @@
         <v>125</v>
       </c>
       <c r="BJ164" s="0" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>290</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>304</v>
+        <v>291</v>
+      </c>
+      <c r="E165" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="G165" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="N165" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="O165" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="P165" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="V165" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="AJ165" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="AX165" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="AY165" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="BC165" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI165" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ165" s="0" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C166" s="0" t="s">
         <v>303</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="E166" s="1" t="s">
         <v>304</v>
+      </c>
+      <c r="E166" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="BH166" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4750,270 +5031,471 @@
         <v>306</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
+      </c>
+      <c r="BA167" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="BB167" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="BH167" s="0" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q168" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="AN168" s="0" t="n">
-        <v>512</v>
-      </c>
-      <c r="AV168" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="AW168" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="BE168" s="0" t="n">
-        <v>144</v>
-      </c>
-      <c r="BL168" s="0" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO168" s="0" t="s">
-        <v>312</v>
+        <v>292</v>
+      </c>
+      <c r="G168" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="N168" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="O168" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="P168" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="V168" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="AJ168" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="AX168" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="AY168" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="BC168" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI168" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ168" s="0" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="D169" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="B169" s="0" t="s">
+      <c r="E169" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="C169" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="D169" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="E169" s="0" t="s">
-        <v>315</v>
+      <c r="BH169" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B170" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="D170" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="E170" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="C170" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="D170" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>315</v>
+      <c r="BH170" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>313</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="F171" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H171" s="0" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="I171" s="0" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J171" s="0" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="K171" s="0" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="L171" s="0" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="M171" s="0" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="U171" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z171" s="0" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AA171" s="0" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AB171" s="0" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AC171" s="0" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AD171" s="0" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AE171" s="0" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AF171" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI171" s="0" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AK171" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL171" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AM171" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AR171" s="0" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AS171" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AT171" s="0" t="n">
-        <v>0.835</v>
-      </c>
-      <c r="AU171" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="BG171" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="BM171" s="0" t="s">
-        <v>322</v>
+        <v>314</v>
+      </c>
+      <c r="BH171" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>325</v>
+        <v>314</v>
+      </c>
+      <c r="BH172" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="G173" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="V173" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="AX173" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="AY173" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="BC173" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="BI173" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="BJ173" s="0" t="s">
-        <v>333</v>
+        <v>314</v>
+      </c>
+      <c r="BH173" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="D174" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="D175" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="D176" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="E176" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D177" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="E177" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q177" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="AN177" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="AV177" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="AW177" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="BE177" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="BL177" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO177" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="D178" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="E178" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C179" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="D179" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="B174" s="0" t="s">
+      <c r="B180" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="C174" s="0" t="s">
+      <c r="C180" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D174" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="E174" s="0" t="s">
+      <c r="E180" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="G174" s="0" t="s">
+      <c r="F180" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H180" s="0" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I180" s="0" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J180" s="0" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K180" s="0" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="L180" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="M180" s="0" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="U180" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z180" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AA180" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB180" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AC180" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AD180" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE180" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF180" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI180" s="0" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AK180" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL180" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM180" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR180" s="0" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS180" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AT180" s="0" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="AU180" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="BG180" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="BM180" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C181" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="D181" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="E181" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="D182" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="E182" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="G182" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="V174" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="AX174" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="AY174" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="BC174" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="BI174" s="0" t="s">
+      <c r="V182" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="AX182" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="AY182" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="BC182" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="BI182" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="BJ174" s="0" t="s">
-        <v>340</v>
+      <c r="BJ182" s="0" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="D183" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="E183" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="G183" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="V183" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="AX183" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="AY183" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="BC183" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="BI183" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ183" s="0" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -5032,13 +5514,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BT34"/>
+  <dimension ref="A1:BT36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="21.16"/>
@@ -5047,8 +5529,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="65.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="65.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.82"/>
@@ -5065,7 +5547,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="8.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="92.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="92.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="6.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="6.98"/>
@@ -5092,13 +5574,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="30.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="54" style="0" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="54" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="21.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="14.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="13.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="25.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="25.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="10.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="11.85"/>
@@ -5114,7 +5596,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -5126,19 +5608,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="J1" s="0" t="s">
         <v>4</v>
@@ -5335,16 +5817,16 @@
         <v>3</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>95453</v>
@@ -5357,7 +5839,7 @@
         <v>1.53</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5365,19 +5847,19 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>93559</v>
@@ -5390,31 +5872,31 @@
         <v>0.65</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>121</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="AO3" s="0" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="BC3" s="0" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="BD3" s="0" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="BH3" s="0" t="s">
         <v>125</v>
@@ -5423,7 +5905,7 @@
         <v>125</v>
       </c>
       <c r="BO3" s="0" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5440,10 +5922,10 @@
         <v>78285333</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>3995</v>
@@ -5464,19 +5946,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>458451</v>
@@ -5489,28 +5971,28 @@
         <v>0.79</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>121</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="BC5" s="0" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="BD5" s="0" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="BH5" s="0" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="BN5" s="0" t="s">
         <v>125</v>
       </c>
       <c r="BO5" s="0" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5518,19 +6000,19 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>1925810</v>
@@ -5543,28 +6025,28 @@
         <v>0.73</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>121</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="BC6" s="0" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="BD6" s="0" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="BH6" s="0" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="BN6" s="0" t="s">
         <v>125</v>
       </c>
       <c r="BO6" s="0" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5572,19 +6054,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>32319</v>
@@ -5597,7 +6079,7 @@
         <v>0.4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5614,10 +6096,10 @@
         <v>119</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>21195</v>
@@ -5656,19 +6138,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>179561</v>
@@ -5681,7 +6163,7 @@
         <v>0.7</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5689,19 +6171,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>498738</v>
@@ -5714,7 +6196,7 @@
         <v>0.8</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5722,19 +6204,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>57703</v>
@@ -5747,7 +6229,7 @@
         <v>0.26</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5755,19 +6237,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>80757</v>
@@ -5780,7 +6262,7 @@
         <v>0.22</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5788,19 +6270,19 @@
         <v>2</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>939972</v>
@@ -5813,7 +6295,7 @@
         <v>0.46</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5830,10 +6312,10 @@
         <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>187675</v>
@@ -5846,7 +6328,7 @@
         <v>0.22</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5854,7 +6336,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>69</v>
@@ -5863,10 +6345,10 @@
         <v>70</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>1373363</v>
@@ -5879,7 +6361,7 @@
         <v>0.44</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5887,7 +6369,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>69</v>
@@ -5896,10 +6378,10 @@
         <v>70</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>910107</v>
@@ -5912,7 +6394,7 @@
         <v>0.6</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5920,7 +6402,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>69</v>
@@ -5929,10 +6411,10 @@
         <v>70</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>186092</v>
@@ -5945,7 +6427,7 @@
         <v>0.28</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5953,7 +6435,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>860020672011</v>
@@ -5962,10 +6444,10 @@
         <v>860020672011</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>23160</v>
@@ -5978,7 +6460,7 @@
         <v>0.22</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5998,7 +6480,7 @@
         <v>140</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>113007</v>
@@ -6011,7 +6493,7 @@
         <v>1.05</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="K19" s="0" t="s">
         <v>144</v>
@@ -6052,19 +6534,19 @@
         <v>2</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>2189</v>
@@ -6077,7 +6559,7 @@
         <v>6.46</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6091,13 +6573,13 @@
         <v>156</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>383</v>
+        <v>399</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>400</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>0.07</v>
@@ -6118,19 +6600,19 @@
         <v>1</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>0</v>
@@ -6140,13 +6622,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="BF22" s="0" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="BG22" s="0" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="BM22" s="0" t="n">
         <v>41</v>
@@ -6157,19 +6639,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>5</v>
@@ -6182,16 +6664,16 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="AS23" s="0" t="n">
         <v>512</v>
       </c>
       <c r="BA23" s="0" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="BB23" s="0" t="n">
         <v>120</v>
@@ -6203,7 +6685,7 @@
         <v>128</v>
       </c>
       <c r="BT23" s="0" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6211,19 +6693,19 @@
         <v>6</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>5202790</v>
@@ -6236,27 +6718,27 @@
         <v>0.6</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>200</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>267</v>
+        <v>406</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>147026</v>
@@ -6266,10 +6748,10 @@
       </c>
       <c r="I25" s="2" t="n">
         <f aca="false">A25*H25</f>
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6280,16 +6762,16 @@
         <v>33</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>39827</v>
@@ -6302,7 +6784,7 @@
         <v>0.2</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6310,19 +6792,19 @@
         <v>2</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>71676</v>
@@ -6335,7 +6817,7 @@
         <v>0.2</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6346,16 +6828,16 @@
         <v>274</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>164151</v>
@@ -6368,7 +6850,7 @@
         <v>0.2</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6376,19 +6858,19 @@
         <v>2</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>31900</v>
@@ -6401,7 +6883,7 @@
         <v>0.2</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6409,19 +6891,19 @@
         <v>2</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>270158</v>
@@ -6434,7 +6916,7 @@
         <v>0.2</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6442,19 +6924,19 @@
         <v>1</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>16252</v>
@@ -6467,7 +6949,7 @@
         <v>0.89</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>0.1</v>
@@ -6536,13 +7018,13 @@
         <v>0.835</v>
       </c>
       <c r="AZ31" s="0" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="BL31" s="0" t="n">
         <v>8</v>
       </c>
       <c r="BR31" s="0" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6562,7 +7044,7 @@
         <v>129</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>1690</v>
@@ -6595,7 +7077,7 @@
         <v>132</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>75588</v>
@@ -6636,14 +7118,86 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>501653</v>
+      </c>
+      <c r="H34" s="4" t="n">
+        <v>0.31</v>
+      </c>
       <c r="I34" s="2" t="n">
+        <f aca="false">A34*H34</f>
+        <v>0.31</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="BM34" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>286482</v>
+      </c>
+      <c r="H35" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <f aca="false">A35*H35</f>
+        <v>0.31</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="BM35" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I36" s="2" t="n">
         <f aca="false">SUM(I2:I33)</f>
-        <v>27.51</v>
+        <v>27.71</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F21" r:id="rId1" display="Amazon"/>
+    <hyperlink ref="F21" r:id="rId1" display="N/A-Order via Amazon"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
